--- a/Schedules/Dummy Schedule.xlsx
+++ b/Schedules/Dummy Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="82">
   <si>
     <t>Cyclotron</t>
   </si>
@@ -298,8 +298,8 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -616,9 +616,11 @@
       <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
@@ -628,19 +630,21 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>22</v>
@@ -648,666 +652,3116 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="F8" s="2" t="s">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="F31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="F32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="F9" s="2" t="s">
+      <c r="L32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="F33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="F35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="F36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="F10" s="2" t="s">
+      <c r="M38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="F39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="F40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="F42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="F43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="F11" s="2" t="s">
+      <c r="M44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="F45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="L45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="F12" s="2" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="F46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="F47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="F48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="F49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="F50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="F51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="F13" s="2" t="s">
+      <c r="L51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="F52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="F53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="F54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="F55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="F56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="F57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="F14" s="2" t="s">
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="F58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="F59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="F60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="F61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="F62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="F63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J63" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="F15" s="2" t="s">
+      <c r="M63" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="F64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="F65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="F66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="F67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="F68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="F69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J69" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="F16" s="3" t="s">
+      <c r="L69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="F70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="F71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="F72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="F73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="F74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="F75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="F17" s="3" t="s">
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="F76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="F77" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="F78" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="F79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="F80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="F81" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="F18" s="3" t="s">
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="F82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="F83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="F84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="F85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="F86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="F87" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="F19" s="3" t="s">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="F88" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G88" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="F89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="F90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="F91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="F92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="F93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="K93" s="2"/>
+      <c r="L93" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="F20" s="3" t="s">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="F94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="F95" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="F96" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="F97" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="F98" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="F99" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G99" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="F21" s="3" t="s">
+      <c r="K99" s="2"/>
+      <c r="L99" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="F100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="F101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="F102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="F103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="F104" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="F105" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G105" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="F22" s="3" t="s">
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="F106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="F107" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="F108" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="F109" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="F110" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="F111" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G111" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
+      <c r="K111" s="2"/>
+      <c r="L111" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="F23" s="3" t="s">
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="F112" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="F113" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="F114" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="F115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="F116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="F117" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
+      <c r="K117" s="2"/>
+      <c r="L117" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M117" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="F24" s="3" t="s">
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="F118" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="F119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="F120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="F121" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="F122" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="F123" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G123" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="F25" s="3" t="s">
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="F124" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G124" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+    </row>
     <row r="125" ht="15.75" customHeight="1"/>
     <row r="126" ht="15.75" customHeight="1"/>
     <row r="127" ht="15.75" customHeight="1"/>
@@ -1636,6 +4090,653 @@
     <row r="450" ht="15.75" customHeight="1"/>
     <row r="451" ht="15.75" customHeight="1"/>
     <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
+    <row r="1017" ht="15.75" customHeight="1"/>
+    <row r="1018" ht="15.75" customHeight="1"/>
+    <row r="1019" ht="15.75" customHeight="1"/>
+    <row r="1020" ht="15.75" customHeight="1"/>
+    <row r="1021" ht="15.75" customHeight="1"/>
+    <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
+    <row r="1024" ht="15.75" customHeight="1"/>
+    <row r="1025" ht="15.75" customHeight="1"/>
+    <row r="1026" ht="15.75" customHeight="1"/>
+    <row r="1027" ht="15.75" customHeight="1"/>
+    <row r="1028" ht="15.75" customHeight="1"/>
+    <row r="1029" ht="15.75" customHeight="1"/>
+    <row r="1030" ht="15.75" customHeight="1"/>
+    <row r="1031" ht="15.75" customHeight="1"/>
+    <row r="1032" ht="15.75" customHeight="1"/>
+    <row r="1033" ht="15.75" customHeight="1"/>
+    <row r="1034" ht="15.75" customHeight="1"/>
+    <row r="1035" ht="15.75" customHeight="1"/>
+    <row r="1036" ht="15.75" customHeight="1"/>
+    <row r="1037" ht="15.75" customHeight="1"/>
+    <row r="1038" ht="15.75" customHeight="1"/>
+    <row r="1039" ht="15.75" customHeight="1"/>
+    <row r="1040" ht="15.75" customHeight="1"/>
+    <row r="1041" ht="15.75" customHeight="1"/>
+    <row r="1042" ht="15.75" customHeight="1"/>
+    <row r="1043" ht="15.75" customHeight="1"/>
+    <row r="1044" ht="15.75" customHeight="1"/>
+    <row r="1045" ht="15.75" customHeight="1"/>
+    <row r="1046" ht="15.75" customHeight="1"/>
+    <row r="1047" ht="15.75" customHeight="1"/>
+    <row r="1048" ht="15.75" customHeight="1"/>
+    <row r="1049" ht="15.75" customHeight="1"/>
+    <row r="1050" ht="15.75" customHeight="1"/>
+    <row r="1051" ht="15.75" customHeight="1"/>
+    <row r="1052" ht="15.75" customHeight="1"/>
+    <row r="1053" ht="15.75" customHeight="1"/>
+    <row r="1054" ht="15.75" customHeight="1"/>
+    <row r="1055" ht="15.75" customHeight="1"/>
+    <row r="1056" ht="15.75" customHeight="1"/>
+    <row r="1057" ht="15.75" customHeight="1"/>
+    <row r="1058" ht="15.75" customHeight="1"/>
+    <row r="1059" ht="15.75" customHeight="1"/>
+    <row r="1060" ht="15.75" customHeight="1"/>
+    <row r="1061" ht="15.75" customHeight="1"/>
+    <row r="1062" ht="15.75" customHeight="1"/>
+    <row r="1063" ht="15.75" customHeight="1"/>
+    <row r="1064" ht="15.75" customHeight="1"/>
+    <row r="1065" ht="15.75" customHeight="1"/>
+    <row r="1066" ht="15.75" customHeight="1"/>
+    <row r="1067" ht="15.75" customHeight="1"/>
+    <row r="1068" ht="15.75" customHeight="1"/>
+    <row r="1069" ht="15.75" customHeight="1"/>
+    <row r="1070" ht="15.75" customHeight="1"/>
+    <row r="1071" ht="15.75" customHeight="1"/>
+    <row r="1072" ht="15.75" customHeight="1"/>
+    <row r="1073" ht="15.75" customHeight="1"/>
+    <row r="1074" ht="15.75" customHeight="1"/>
+    <row r="1075" ht="15.75" customHeight="1"/>
+    <row r="1076" ht="15.75" customHeight="1"/>
+    <row r="1077" ht="15.75" customHeight="1"/>
+    <row r="1078" ht="15.75" customHeight="1"/>
+    <row r="1079" ht="15.75" customHeight="1"/>
+    <row r="1080" ht="15.75" customHeight="1"/>
+    <row r="1081" ht="15.75" customHeight="1"/>
+    <row r="1082" ht="15.75" customHeight="1"/>
+    <row r="1083" ht="15.75" customHeight="1"/>
+    <row r="1084" ht="15.75" customHeight="1"/>
+    <row r="1085" ht="15.75" customHeight="1"/>
+    <row r="1086" ht="15.75" customHeight="1"/>
+    <row r="1087" ht="15.75" customHeight="1"/>
+    <row r="1088" ht="15.75" customHeight="1"/>
+    <row r="1089" ht="15.75" customHeight="1"/>
+    <row r="1090" ht="15.75" customHeight="1"/>
+    <row r="1091" ht="15.75" customHeight="1"/>
+    <row r="1092" ht="15.75" customHeight="1"/>
+    <row r="1093" ht="15.75" customHeight="1"/>
+    <row r="1094" ht="15.75" customHeight="1"/>
+    <row r="1095" ht="15.75" customHeight="1"/>
+    <row r="1096" ht="15.75" customHeight="1"/>
+    <row r="1097" ht="15.75" customHeight="1"/>
+    <row r="1098" ht="15.75" customHeight="1"/>
+    <row r="1099" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
